--- a/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE40C9-5DFE-48F4-8744-3CD69FF8A2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358FD5E-F973-454F-8ABC-7908F60319A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="287">
-  <si>
-    <t>AllocationAmount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -311,9 +308,6 @@
     <t>AllocationCropDutyAmount</t>
   </si>
   <si>
-    <t>AllocationMaximum</t>
-  </si>
-  <si>
     <t>PopulationServed</t>
   </si>
   <si>
@@ -900,6 +894,30 @@
   </si>
   <si>
     <t>(701) 328-2754</t>
+  </si>
+  <si>
+    <t>Mapping Schema Version</t>
+  </si>
+  <si>
+    <t>PODorPOUSite</t>
+  </si>
+  <si>
+    <t>POD</t>
+  </si>
+  <si>
+    <t>POD or PoU for site info.</t>
+  </si>
+  <si>
+    <t>AllocationFlow_CFS</t>
+  </si>
+  <si>
+    <t>AllocationVolume_AF</t>
+  </si>
+  <si>
+    <t>ExemptOfVolumeFlowPriority</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
 </sst>
 </file>
@@ -909,7 +927,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,6 +1145,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1599,7 +1625,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1642,8 +1668,9 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1892,11 +1919,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1930,6 +1966,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2250,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,44 +2304,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>262</v>
+        <v>285</v>
+      </c>
+      <c r="B1" s="84">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
-        <v>241</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="A13" s="72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D19" s="77"/>
@@ -2316,11 +2356,16 @@
       <c r="E20" s="77"/>
       <c r="F20" s="77"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2333,7 +2378,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,352 +2405,352 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>11</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="71">
         <v>0.5</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2749,380 +2794,380 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3138,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3166,354 +3211,354 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="18">
         <v>1</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J9" s="63" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="63" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="96" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="63" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3544,8 +3589,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
     <sortCondition ref="A17:A25"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{81413332-9BD1-494E-A13A-FE76759BD084}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3581,213 +3629,213 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="47"/>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="74"/>
       <c r="H5" s="19"/>
       <c r="I5" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="73"/>
       <c r="G6" s="74"/>
       <c r="H6" s="19"/>
       <c r="I6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="74"/>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="74"/>
@@ -3796,35 +3844,35 @@
         <v>17839</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="74" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3846,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3876,474 +3924,476 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="80"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
       <c r="H4" s="80"/>
       <c r="I4" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="80"/>
       <c r="I6" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="79"/>
       <c r="I8" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="80"/>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="18" t="s">
-        <v>122</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" s="84" t="s">
+        <v>287</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4351,154 +4401,182 @@
         <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>244</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="18">
-        <v>3703994</v>
+        <v>38</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>162</v>
+        <v>264</v>
+      </c>
+      <c r="H19" s="79"/>
+      <c r="I19" s="18">
+        <v>3703994</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>268</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="H20" s="80"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="63" t="s">
-        <v>229</v>
+      <c r="J20" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="80"/>
-      <c r="I22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>162</v>
+      <c r="I22" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="80"/>
+      <c r="I23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J26">
-    <sortCondition ref="A5:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J27">
+    <sortCondition ref="A5:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4507,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:G33"/>
+    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4537,663 +4615,665 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
       <c r="H3" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="65">
         <v>50004</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="65">
         <v>43</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="65">
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="65">
         <v>39035</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="65">
         <v>63</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="65">
         <v>371091</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="65">
+        <v>5363</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>21</v>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="65">
-        <v>5363</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>199</v>
+        <v>38</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>21</v>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="63" t="s">
-        <v>233</v>
+        <v>38</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I21" s="18">
+        <v>5200</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="18">
-        <v>5200</v>
+        <v>38</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="65">
+        <v>1</v>
       </c>
       <c r="J22" s="63" t="s">
         <v>198</v>
@@ -5201,66 +5281,66 @@
     </row>
     <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5268,670 +5348,696 @@
         <v>84</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="H25" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="63" t="s">
+      <c r="H26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="63" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="37" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>277</v>
+        <v>38</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>159</v>
+        <v>38</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J27" s="63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="37" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I28" s="68">
+        <v>44196</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="68">
+        <v>43831</v>
+      </c>
+      <c r="J29" s="63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="H29" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="68">
-        <v>44196</v>
-      </c>
-      <c r="J29" s="63" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="68">
-        <v>43831</v>
-      </c>
-      <c r="J30" s="63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="64" t="s">
-        <v>162</v>
+      <c r="H31" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="65">
+        <v>0</v>
+      </c>
+      <c r="J31" s="63" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J33" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J35" s="63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="69">
         <v>43874</v>
       </c>
       <c r="J36" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="70">
         <v>33187</v>
       </c>
       <c r="J37" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>242</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="63" t="s">
-        <v>209</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H38" s="86"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="83"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="37"/>
+        <v>38</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="I39" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="63" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>135</v>
+        <v>38</v>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="64" t="s">
-        <v>162</v>
+        <v>38</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="63" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="63" t="s">
-        <v>213</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J45">
-    <sortCondition ref="A14:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
+    <sortCondition ref="A14:A46"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358FD5E-F973-454F-8ABC-7908F60319A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA82B2-FAB0-46AD-8E51-D8D403291322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -830,15 +830,9 @@
     <t>source_nam</t>
   </si>
   <si>
-    <t>Unknown if blank</t>
-  </si>
-  <si>
     <t>pod</t>
   </si>
   <si>
-    <t>aquifer</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -918,6 +912,9 @@
   </si>
   <si>
     <t>bit</t>
+  </si>
+  <si>
+    <t>*Use custom WaDE made ID</t>
   </si>
 </sst>
 </file>
@@ -2289,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2304,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B1" s="84">
         <v>2</v>
@@ -2377,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2387,9 +2384,9 @@
     <col min="2" max="2" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="70.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -2766,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F86677-A939-4892-ADA0-492C09897DFD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2776,9 +2773,9 @@
     <col min="2" max="2" width="12.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="93.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -3184,7 +3181,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3447,7 +3444,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -3601,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3611,8 +3608,8 @@
     <col min="2" max="2" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -3835,7 +3832,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>160</v>
+        <v>291</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="74"/>
@@ -3861,11 +3858,11 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="74" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
@@ -3896,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3906,8 +3903,8 @@
     <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" style="5" customWidth="1"/>
@@ -4088,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
@@ -4112,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
@@ -4266,7 +4263,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
@@ -4296,7 +4293,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
@@ -4368,7 +4365,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4380,7 +4377,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>38</v>
@@ -4390,10 +4387,10 @@
       </c>
       <c r="H17"/>
       <c r="I17" s="84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4408,13 +4405,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="18" t="s">
@@ -4444,7 +4441,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="18">
@@ -4504,7 +4501,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
@@ -4587,8 +4584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4597,9 +4594,9 @@
     <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="116.109375" style="5" customWidth="1"/>
@@ -4909,7 +4906,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -4973,7 +4970,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -5011,7 +5008,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>38</v>
@@ -5101,7 +5098,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -5235,7 +5232,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>38</v>
@@ -5249,7 +5246,7 @@
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B22" s="53" t="s">
         <v>69</v>
@@ -5267,7 +5264,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H22" s="86" t="s">
         <v>38</v>
@@ -5299,7 +5296,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>38</v>
@@ -5331,7 +5328,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
@@ -5363,7 +5360,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
@@ -5395,7 +5392,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>38</v>
@@ -5459,7 +5456,7 @@
         <v>38</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>38</v>
@@ -5491,7 +5488,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>38</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" s="53" t="s">
         <v>69</v>
@@ -5555,7 +5552,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H31" s="86" t="s">
         <v>38</v>
@@ -5587,7 +5584,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>38</v>
@@ -5761,10 +5758,10 @@
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>18</v>

--- a/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA82B2-FAB0-46AD-8E51-D8D403291322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DDC66B-B0EF-4A52-90A4-974590C6E84D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -915,6 +915,18 @@
   </si>
   <si>
     <t>*Use custom WaDE made ID</t>
+  </si>
+  <si>
+    <t>Reversed order of owner name to be first + last name.</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1679,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1927,6 +1939,9 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2286,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2331,6 +2346,9 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="72" t="s">
         <v>239</v>
+      </c>
+      <c r="B13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4582,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5596,7 +5614,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -5628,7 +5646,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>98</v>
       </c>
@@ -5660,7 +5678,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>100</v>
       </c>
@@ -5692,7 +5710,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>155</v>
       </c>
@@ -5724,7 +5742,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -5756,7 +5774,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
         <v>289</v>
       </c>
@@ -5782,7 +5800,7 @@
       <c r="I38" s="69"/>
       <c r="J38" s="83"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -5814,7 +5832,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -5844,7 +5862,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>99</v>
       </c>
@@ -5876,7 +5894,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -5908,50 +5926,50 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>240</v>
@@ -5965,76 +5983,108 @@
       <c r="H44" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J45" s="64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B46" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C46" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="D46" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E46" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="65" t="s">
+      <c r="F46" s="34"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="J45" s="63" t="s">
+      <c r="J46" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="24" t="s">
+      <c r="D47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="18" t="s">
+      <c r="F47" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J47" s="63" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
-    <sortCondition ref="A14:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
+    <sortCondition ref="A14:A47"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DDC66B-B0EF-4A52-90A4-974590C6E84D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41B561-2C0F-4A06-8DC7-1DDFD2067128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="297">
   <si>
     <t>Name</t>
   </si>
@@ -776,9 +776,6 @@
     <t>Unspecified if blank</t>
   </si>
   <si>
-    <t>NDSWC_Water Rights</t>
-  </si>
-  <si>
     <t>North Dakota Water Rights</t>
   </si>
   <si>
@@ -794,12 +791,6 @@
     <t>Adjudicated</t>
   </si>
   <si>
-    <t>NDSWC_Allocation All</t>
-  </si>
-  <si>
-    <t>NDSWC</t>
-  </si>
-  <si>
     <t>North Dakota State Water Commission</t>
   </si>
   <si>
@@ -927,6 +918,18 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>Centroid of Area</t>
+  </si>
+  <si>
+    <t>NDwr_M1</t>
+  </si>
+  <si>
+    <t>NDwr_V1</t>
+  </si>
+  <si>
+    <t>NDwr_O1</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B1" s="84">
         <v>2</v>
@@ -2327,7 +2330,7 @@
         <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2335,7 +2338,7 @@
         <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2348,12 +2351,12 @@
         <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -2393,7 +2396,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -2528,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -2656,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -2686,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -2718,7 +2721,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -2750,7 +2753,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -2782,7 +2785,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2879,7 +2882,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3198,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3302,7 +3305,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3366,7 +3369,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3398,7 +3401,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -3430,7 +3433,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -3462,7 +3465,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -3494,7 +3497,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -3526,7 +3529,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3558,7 +3561,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -3718,7 +3721,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="47"/>
@@ -3826,7 +3829,7 @@
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="74" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
@@ -3850,7 +3853,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="74"/>
@@ -3880,7 +3883,7 @@
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="74" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
@@ -3912,12 +3915,12 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="E1:G1048576"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="6" bestFit="1" customWidth="1"/>
@@ -4011,7 +4014,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
@@ -4067,7 +4070,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>38</v>
@@ -4103,7 +4106,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
@@ -4127,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
@@ -4281,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
@@ -4311,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
@@ -4383,7 +4386,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4395,7 +4398,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>38</v>
@@ -4405,10 +4408,10 @@
       </c>
       <c r="H17"/>
       <c r="I17" s="84" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4459,7 +4462,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="18">
@@ -4519,7 +4522,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
@@ -4543,7 +4546,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>38</v>
@@ -4602,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4860,7 +4863,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>38</v>
@@ -4892,7 +4895,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4924,7 +4927,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -4956,7 +4959,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -4988,7 +4991,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -5026,7 +5029,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>38</v>
@@ -5250,7 +5253,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>38</v>
@@ -5264,7 +5267,7 @@
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B22" s="53" t="s">
         <v>69</v>
@@ -5282,7 +5285,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H22" s="86" t="s">
         <v>38</v>
@@ -5314,7 +5317,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>38</v>
@@ -5346,7 +5349,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
@@ -5378,7 +5381,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
@@ -5410,7 +5413,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>38</v>
@@ -5474,7 +5477,7 @@
         <v>38</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>38</v>
@@ -5506,7 +5509,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>38</v>
@@ -5552,7 +5555,7 @@
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B31" s="53" t="s">
         <v>69</v>
@@ -5570,7 +5573,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H31" s="86" t="s">
         <v>38</v>
@@ -5602,7 +5605,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>38</v>
@@ -5776,10 +5779,10 @@
     </row>
     <row r="38" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>18</v>
@@ -5928,7 +5931,7 @@
     </row>
     <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -5946,10 +5949,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>

--- a/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41B561-2C0F-4A06-8DC7-1DDFD2067128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754FD543-E2FA-4820-86F6-DB0C216DF9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="299">
   <si>
     <t>Name</t>
   </si>
@@ -488,9 +488,6 @@
     <t>Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>PrimaryUseCategory</t>
-  </si>
-  <si>
     <t>BeneficialUseCategory</t>
   </si>
   <si>
@@ -930,6 +927,15 @@
   </si>
   <si>
     <t>NDwr_O1</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>NDwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1688,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1945,6 +1951,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2319,7 +2328,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="84">
         <v>2</v>
@@ -2327,36 +2336,36 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -2438,10 +2447,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2482,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2499,7 +2508,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -2514,7 +2523,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2531,7 +2540,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -2546,7 +2555,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2563,7 +2572,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -2578,7 +2587,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2595,7 +2604,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -2610,7 +2619,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2627,7 +2636,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -2639,10 +2648,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2659,7 +2668,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -2672,7 +2681,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2689,7 +2698,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -2704,7 +2713,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2721,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -2736,7 +2745,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2753,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -2768,7 +2777,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2827,10 +2836,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2865,7 +2874,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2882,7 +2891,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -2897,7 +2906,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2929,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2961,7 +2970,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2993,7 +3002,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3025,7 +3034,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3057,7 +3066,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3089,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3121,7 +3130,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3153,7 +3162,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3185,7 +3194,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3244,10 +3253,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3288,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3305,7 +3314,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>38</v>
@@ -3320,7 +3329,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3352,7 +3361,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3369,7 +3378,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -3384,7 +3393,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3401,7 +3410,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -3416,7 +3425,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3433,7 +3442,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -3448,7 +3457,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3465,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -3480,7 +3489,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3497,7 +3506,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -3512,7 +3521,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3529,7 +3538,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -3544,7 +3553,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3561,7 +3570,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -3576,7 +3585,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3662,10 +3671,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3704,7 +3713,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3721,7 +3730,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="47"/>
@@ -3730,7 +3739,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3747,7 +3756,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="74"/>
@@ -3756,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3773,7 +3782,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="73"/>
       <c r="G6" s="74"/>
@@ -3782,7 +3791,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3808,7 +3817,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3825,18 +3834,18 @@
         <v>38</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3853,7 +3862,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="74"/>
@@ -3862,7 +3871,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3879,18 +3888,18 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3957,10 +3966,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3999,7 +4008,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4014,7 +4023,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="45"/>
@@ -4023,7 +4032,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4040,7 +4049,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -4053,7 +4062,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4070,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>38</v>
@@ -4083,7 +4092,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4106,14 +4115,14 @@
         <v>38</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="73" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4130,7 +4139,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
@@ -4143,7 +4152,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4160,7 +4169,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -4171,7 +4180,7 @@
       <c r="H9" s="80"/>
       <c r="I9" s="18"/>
       <c r="J9" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4188,7 +4197,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -4201,7 +4210,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4218,7 +4227,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -4231,7 +4240,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4248,7 +4257,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -4261,7 +4270,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4284,14 +4293,14 @@
         <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="18" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4314,14 +4323,14 @@
         <v>38</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4338,7 +4347,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>38</v>
@@ -4351,7 +4360,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4368,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>38</v>
@@ -4381,12 +4390,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4398,7 +4407,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>38</v>
@@ -4408,10 +4417,10 @@
       </c>
       <c r="H17"/>
       <c r="I17" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="J17" s="63" t="s">
         <v>282</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4426,7 +4435,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -4439,7 +4448,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4462,14 +4471,14 @@
         <v>38</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4486,7 +4495,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>38</v>
@@ -4499,7 +4508,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4522,14 +4531,14 @@
         <v>38</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="18" t="s">
         <v>121</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4546,7 +4555,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>38</v>
@@ -4559,7 +4568,7 @@
         <v>141</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4576,7 +4585,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>38</v>
@@ -4589,7 +4598,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4603,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4648,10 +4657,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4686,7 +4695,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4718,7 +4727,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4750,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4782,7 +4791,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4814,7 +4823,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -4846,76 +4855,66 @@
         <v>371091</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B10" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="C10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="49" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="66" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
@@ -4926,8 +4925,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>265</v>
+      <c r="E11" s="61" t="s">
+        <v>295</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -4942,12 +4941,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
@@ -4958,8 +4957,8 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="58" t="s">
-        <v>295</v>
+      <c r="E12" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -4974,108 +4973,108 @@
         <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="C14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="65">
+      <c r="E15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="65">
         <v>5363</v>
       </c>
-      <c r="J14" s="63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>160</v>
+      <c r="J15" s="63" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -5087,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>38</v>
@@ -5102,79 +5101,79 @@
         <v>133</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B18" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>160</v>
+      <c r="I18" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -5183,7 +5182,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>38</v>
@@ -5195,18 +5194,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -5215,7 +5214,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>38</v>
@@ -5226,121 +5225,121 @@
       <c r="H20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="E22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J21" s="63" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="J22" s="63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="65">
+      <c r="D23" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="65">
         <v>1</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="J23" s="63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>38</v>
@@ -5348,150 +5347,150 @@
       <c r="F24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>268</v>
+      <c r="G24" s="49" t="s">
+        <v>270</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="J26" s="63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="37" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
+      <c r="C27" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>38</v>
+      <c r="G27" s="21" t="s">
+        <v>269</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="67" t="s">
-        <v>38</v>
+      <c r="I27" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="37" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>273</v>
+      <c r="G28" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="68">
-        <v>44196</v>
+      <c r="I28" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>106</v>
@@ -5515,155 +5514,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="68">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="68">
+        <v>43831</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="18" t="s">
+      <c r="E31" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J30" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="53" t="s">
+      <c r="J31" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C32" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="65">
+      <c r="D32" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="65">
         <v>0</v>
       </c>
-      <c r="J31" s="63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="63" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>18</v>
+      <c r="C33" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>38</v>
+      <c r="E33" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>38</v>
@@ -5677,13 +5676,13 @@
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J34" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -5695,7 +5694,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>38</v>
@@ -5710,134 +5709,134 @@
         <v>133</v>
       </c>
       <c r="J35" s="63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="69">
+      <c r="C37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="69">
         <v>43874</v>
       </c>
-      <c r="J36" s="63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="J37" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="70">
+      <c r="D38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="70">
         <v>33187</v>
       </c>
-      <c r="J37" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="85" t="s">
+      <c r="J38" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="54" t="s">
+      <c r="C39" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="34">
+      <c r="D39" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="34">
         <v>0</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="86"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="83"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>240</v>
-      </c>
       <c r="F39" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="63" t="s">
-        <v>207</v>
-      </c>
+      <c r="H39" s="86"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="83"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -5849,7 +5848,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>38</v>
@@ -5857,29 +5856,31 @@
       <c r="G40" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="37"/>
+      <c r="H40" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="67" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" s="34" t="s">
         <v>38</v>
@@ -5887,31 +5888,29 @@
       <c r="G41" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>133</v>
+      <c r="H41" s="37"/>
+      <c r="I41" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>38</v>
@@ -5922,16 +5921,16 @@
       <c r="H42" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -5939,155 +5938,187 @@
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="88"/>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>38</v>
+      </c>
       <c r="H43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="J43" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="88"/>
       <c r="H44" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="J44" s="63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="18" t="s">
+      <c r="E46" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="53" t="s">
+      <c r="J46" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C47" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D47" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E47" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="65" t="s">
+      <c r="F47" s="34"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J47" s="63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="63" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J47" s="63" t="s">
-        <v>211</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NorthDakota/WaterAllocation/ND_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NorthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754FD543-E2FA-4820-86F6-DB0C216DF9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090CD67-5181-4DC6-8296-6C8A18492936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -773,21 +773,9 @@
     <t>Unspecified if blank</t>
   </si>
   <si>
-    <t>North Dakota Water Rights</t>
-  </si>
-  <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
-    <t>https://mapservice.swc.nd.gov/</t>
-  </si>
-  <si>
     <t>Surface Ground</t>
   </si>
   <si>
-    <t>Adjudicated</t>
-  </si>
-  <si>
     <t>North Dakota State Water Commission</t>
   </si>
   <si>
@@ -851,9 +839,6 @@
     <t>priority_d</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>period_sta</t>
   </si>
   <si>
@@ -936,6 +921,24 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>pod_status</t>
+  </si>
+  <si>
+    <t>This data is provided by the ND Department of Water Resources for your convenience. This data is provisional. This service is provided "AS IS" and without warranty of any kind, either express or implied. No warranty, either expressed or implied, is made regarding the accuracy or utility of the data or information presented at this site. The ND Department of Water Resources is not responsible for any errors or damages that may occur resulting from the use or mis-use of the data that is provided at this site. If you have any questions regarding the data, generation methods, or errors, please direct any these comments to Chris Bader at ND Department of Water Resources. Phone: (701) 328-4771 E-Mail: cbader@nd.gov</t>
+  </si>
+  <si>
+    <t>North Dakota Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://www.swc.nd.gov/reg_approp/waterpermits/</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>Use 'permid_ind' field with https://www.swc.nd.gov/info_edu/map_data_resources/waterpermits/single.php?id=</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,6 +1177,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1688,7 +1696,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1744,19 +1752,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1858,9 +1860,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1906,32 +1905,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1952,9 +1945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2319,7 +2310,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
@@ -2327,66 +2318,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="84">
+      <c r="A1" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="79">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="69" t="s">
         <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="69" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="69" t="s">
         <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
@@ -2404,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2414,7 +2405,7 @@
     <col min="2" max="2" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="5" bestFit="1" customWidth="1"/>
@@ -2475,13 +2466,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2490,7 +2481,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2498,22 +2489,22 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2522,7 +2513,7 @@
       <c r="I4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2540,12 +2531,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2554,7 +2545,7 @@
       <c r="I5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2571,22 +2562,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="68">
         <v>0.5</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2603,22 +2594,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="60" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2635,22 +2626,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2667,20 +2658,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2698,12 +2689,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -2712,11 +2703,11 @@
       <c r="I10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2729,13 +2720,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2744,7 +2735,7 @@
       <c r="I11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2761,13 +2752,13 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2776,7 +2767,7 @@
       <c r="I12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2784,8 +2775,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{17DFD04B-5CA0-4A9E-BA1D-87E8ACB7065A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2864,16 +2858,16 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2881,22 +2875,22 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2905,7 +2899,7 @@
       <c r="I4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2925,10 +2919,10 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2937,7 +2931,7 @@
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2957,10 +2951,10 @@
       <c r="E6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -2969,7 +2963,7 @@
       <c r="I6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2989,10 +2983,10 @@
       <c r="E7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3001,7 +2995,7 @@
       <c r="I7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3021,10 +3015,10 @@
       <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3033,7 +3027,7 @@
       <c r="I8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3053,10 +3047,10 @@
       <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3065,7 +3059,7 @@
       <c r="I9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3085,10 +3079,10 @@
       <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3097,7 +3091,7 @@
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3117,10 +3111,10 @@
       <c r="E11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3129,7 +3123,7 @@
       <c r="I11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3149,10 +3143,10 @@
       <c r="E12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3161,7 +3155,7 @@
       <c r="I12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3181,10 +3175,10 @@
       <c r="E13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -3193,7 +3187,7 @@
       <c r="I13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="60" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3281,13 +3275,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3296,7 +3290,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3304,22 +3298,22 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -3328,7 +3322,7 @@
       <c r="I4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3348,10 +3342,10 @@
       <c r="E5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -3360,7 +3354,7 @@
       <c r="I5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3378,12 +3372,12 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3392,7 +3386,7 @@
       <c r="I6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3410,12 +3404,12 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3424,7 +3418,7 @@
       <c r="I7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3442,12 +3436,12 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3456,7 +3450,7 @@
       <c r="I8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3474,12 +3468,12 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3488,7 +3482,7 @@
       <c r="I9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3506,12 +3500,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3520,11 +3514,11 @@
       <c r="I10" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -3537,13 +3531,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -3552,7 +3546,7 @@
       <c r="I11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3570,12 +3564,12 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3584,7 +3578,7 @@
       <c r="I12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3699,20 +3693,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3720,25 +3714,25 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3755,16 +3749,16 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="63" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3781,16 +3775,16 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="63" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="60" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3807,16 +3801,16 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3833,18 +3827,18 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3861,16 +3855,16 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3887,18 +3881,18 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3994,20 +3988,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="80"/>
+      <c r="E3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="75"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4015,23 +4009,23 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="80"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4048,20 +4042,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="80"/>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="75"/>
       <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4078,50 +4072,50 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="80"/>
+      <c r="E6" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="75"/>
       <c r="I6" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="83" t="s">
+      <c r="D7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="78" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4139,19 +4133,19 @@
         <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="79"/>
+        <v>259</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="74"/>
       <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4168,18 +4162,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="80"/>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="75"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4196,20 +4190,20 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4226,20 +4220,20 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="64" t="s">
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4256,20 +4250,20 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="64" t="s">
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="75"/>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4286,20 +4280,20 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" s="81"/>
+      <c r="E13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="76"/>
       <c r="I13" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="60" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4316,20 +4310,20 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" s="81"/>
+      <c r="E14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="76"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="60" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4346,20 +4340,20 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="63" t="s">
+      <c r="F15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="60" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4376,26 +4370,26 @@
       <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="63" t="s">
+      <c r="F16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="75"/>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="60" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4406,21 +4400,21 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="21" t="s">
+      <c r="E17" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H17"/>
-      <c r="I17" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>282</v>
+      <c r="I17" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4434,20 +4428,20 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="80"/>
+      <c r="F18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="75"/>
       <c r="I18" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="60" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4464,20 +4458,20 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H19" s="79"/>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="H19" s="74"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="60" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4494,20 +4488,20 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="80"/>
+      <c r="F20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="75"/>
       <c r="I20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4524,20 +4518,20 @@
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="H21" s="80"/>
+      <c r="E21" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="75"/>
       <c r="I21" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="60" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4554,20 +4548,20 @@
       <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="80"/>
+      <c r="E22" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="75"/>
       <c r="I22" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="60" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4584,20 +4578,20 @@
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="80"/>
-      <c r="I23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="64" t="s">
+      <c r="F23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4614,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4672,243 +4666,243 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="65">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="62">
         <v>50004</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="65">
+      <c r="E4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="62">
         <v>43</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="65">
+      <c r="E5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="62">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="65">
+      <c r="E6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="62">
         <v>39035</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="65">
+      <c r="E7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="62">
         <v>63</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="65">
+      <c r="E8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="62">
         <v>371091</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="53" t="s">
+    <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="63"/>
-    </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="C9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="63" t="s">
+      <c r="C10" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4925,22 +4919,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="63" t="s">
+      <c r="E11" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="60" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4958,21 +4952,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="60" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4989,22 +4983,22 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="63" t="s">
+      <c r="E13" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5012,67 +5006,67 @@
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="63" t="s">
+      <c r="C14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="65">
+      <c r="E15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="62">
         <v>5363</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="60" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -5085,26 +5079,26 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="38" t="s">
+      <c r="F16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -5117,54 +5111,54 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="38" t="s">
+      <c r="F17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:10" s="35" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="65" t="s">
+      <c r="F18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="60" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5181,22 +5175,22 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="F19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5213,26 +5207,26 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="38" t="s">
+      <c r="F20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -5245,22 +5239,22 @@
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="64" t="s">
+      <c r="F21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5277,54 +5271,54 @@
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="38" t="s">
+      <c r="E22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="B23" s="53" t="s">
+    <row r="23" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="H23" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="65">
+      <c r="D23" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="62">
         <v>1</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="60" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5341,22 +5335,22 @@
       <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="H24" s="38" t="s">
+      <c r="E24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="60" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5373,22 +5367,22 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="H25" s="38" t="s">
+      <c r="E25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="60" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5405,22 +5399,22 @@
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="H26" s="38" t="s">
+      <c r="E26" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="60" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5431,32 +5425,32 @@
       <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="H27" s="38" t="s">
+      <c r="E27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="37" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>153</v>
       </c>
@@ -5469,22 +5463,22 @@
       <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F28" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="63" t="s">
+      <c r="F28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="60" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5501,22 +5495,22 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="68">
+      <c r="E29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="65">
         <v>44196</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="60" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5533,22 +5527,22 @@
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="68">
+      <c r="E30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="65">
         <v>43831</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="60" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5565,54 +5559,54 @@
       <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="38" t="s">
+      <c r="F31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="B32" s="53" t="s">
+    <row r="32" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="H32" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="65">
+      <c r="D32" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="62">
         <v>0</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="60" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5623,28 +5617,28 @@
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="63" t="s">
+      <c r="E33" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="60" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5661,22 +5655,22 @@
       <c r="D34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="38" t="s">
+      <c r="F34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="J34" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5693,26 +5687,26 @@
       <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="38" t="s">
+      <c r="F35" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="60" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="52" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="50" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>100</v>
       </c>
@@ -5725,54 +5719,54 @@
       <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="38" t="s">
+      <c r="F36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="63" t="s">
+      <c r="J36" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
+      <c r="C37" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="69">
+      <c r="F37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="66">
         <v>43874</v>
       </c>
-      <c r="J37" s="63" t="s">
+      <c r="J37" s="60" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5789,50 +5783,50 @@
       <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="70">
+      <c r="F38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="67">
         <v>33187</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J38" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="54" t="s">
+    <row r="39" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="34">
+      <c r="D39" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="32">
         <v>0</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="83"/>
+      <c r="F39" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="81"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -5847,22 +5841,22 @@
       <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="63" t="s">
+      <c r="F40" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="60" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5879,20 +5873,20 @@
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="63" t="s">
+      <c r="F41" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="35"/>
+      <c r="I41" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="60" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5909,22 +5903,22 @@
       <c r="D42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="38" t="s">
+      <c r="F42" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="63" t="s">
+      <c r="J42" s="60" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5941,28 +5935,28 @@
       <c r="D43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="64" t="s">
+      <c r="F43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -5975,15 +5969,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>291</v>
+      <c r="G44" s="83"/>
+      <c r="H44" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>286</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6005,26 +5999,26 @@
       <c r="D45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="63" t="s">
+      <c r="F45" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="60" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
@@ -6037,54 +6031,54 @@
       <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="38" t="s">
+      <c r="F46" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="64" t="s">
+      <c r="J46" s="61" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="65" t="s">
+      <c r="F47" s="32"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="63" t="s">
+      <c r="J47" s="60" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>97</v>
       </c>
@@ -6097,22 +6091,22 @@
       <c r="D48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="38" t="s">
+      <c r="E48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="H48" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="63" t="s">
+      <c r="J48" s="60" t="s">
         <v>210</v>
       </c>
     </row>
